--- a/Materiale/Costi.Progetto.Maturita.xlsx
+++ b/Materiale/Costi.Progetto.Maturita.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\jms2012.jeanmonnet.local\INFAppData$\piscitelli_federico\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\perego_daniele\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>MATERIALE</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>Clock</t>
+  </si>
+  <si>
+    <t>Spese attuali:</t>
+  </si>
+  <si>
+    <t>Budget totale</t>
   </si>
 </sst>
 </file>
@@ -132,7 +138,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,7 +153,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF993300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
@@ -230,24 +242,26 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -255,6 +269,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFED13B4"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -532,10 +551,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -544,23 +563,23 @@
     <col min="2" max="3" width="20"/>
     <col min="4" max="4" width="24.7109375"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="1025" width="11.5703125"/>
+    <col min="6" max="1024" width="11.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -571,7 +590,7 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>0</v>
       </c>
     </row>
@@ -582,22 +601,22 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="9">
         <v>3.95</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="11" t="s">
         <v>19</v>
       </c>
     </row>
@@ -605,48 +624,53 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="4">
+      <c r="B7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="9">
         <v>6.85</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="E7" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="9">
         <v>3.65</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="11" t="s">
         <v>19</v>
       </c>
     </row>
@@ -654,42 +678,76 @@
       <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>36.92</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>7.83</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="35.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="B11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="9">
+        <v>7.99</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="7">
+      <c r="B13" s="12"/>
+      <c r="C13" s="14">
         <f>SUM(C2:C11)</f>
-        <v>59.2</v>
+        <v>67.19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="12">
+        <f>SUM(C7,C4,C8,C11)</f>
+        <v>22.44</v>
+      </c>
+      <c r="C14" s="14">
+        <f>SUM(C11,C7,C8,C4)</f>
+        <v>22.439999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1" display="Comunicazione "/>
@@ -697,9 +755,11 @@
     <hyperlink ref="B10" r:id="rId3"/>
     <hyperlink ref="B4" r:id="rId4"/>
     <hyperlink ref="B8" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B11" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId8"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Pagina &amp;P</oddFooter>

--- a/Materiale/Costi.Progetto.Maturita.xlsx
+++ b/Materiale/Costi.Progetto.Maturita.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\perego_daniele\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\jms2012.jeanmonnet.local\INFAppData$\piscitelli_federico\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17925" windowHeight="9735" tabRatio="188"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="6120" tabRatio="188"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>MATERIALE</t>
   </si>
@@ -73,12 +73,6 @@
   </si>
   <si>
     <t>Totale spese</t>
-  </si>
-  <si>
-    <t>Comprato</t>
-  </si>
-  <si>
-    <t>Si</t>
   </si>
   <si>
     <t>Ebay</t>
@@ -138,7 +132,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,8 +157,14 @@
         <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -185,17 +185,6 @@
       <bottom style="hair">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -223,15 +212,15 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="hair">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -240,28 +229,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -553,8 +546,8 @@
   </sheetPr>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -576,12 +569,10 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -590,9 +581,10 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>0</v>
       </c>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -601,35 +593,35 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>0</v>
       </c>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="9">
-        <v>3.95</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11" t="s">
-        <v>19</v>
-      </c>
+      <c r="B4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0</v>
       </c>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -638,108 +630,106 @@
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>0</v>
       </c>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="9">
-        <v>6.85</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="C7" s="13">
+        <v>7.29</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>19</v>
-      </c>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="9">
-        <v>3.65</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11" t="s">
-        <v>19</v>
-      </c>
+      <c r="B8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="13">
+        <v>4.99</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="3">
-        <v>36.92</v>
-      </c>
+      <c r="C9" s="2">
+        <v>35.5</v>
+      </c>
+      <c r="E9" s="18"/>
     </row>
     <row r="10" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="3">
-        <v>7.83</v>
-      </c>
+      <c r="C10" s="2">
+        <v>15.6</v>
+      </c>
+      <c r="E10" s="18"/>
     </row>
     <row r="11" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="13">
+        <v>7.99</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="18"/>
+    </row>
+    <row r="13" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="10">
+        <f>SUM(C2:C11)</f>
+        <v>71.37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="11">
+        <f>SUM(C7,C4,C8,C11)</f>
+        <v>20.270000000000003</v>
+      </c>
+      <c r="C14" s="10">
+        <f>SUM(C11,C7,C8,C4)</f>
+        <v>20.270000000000003</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="9">
-        <v>7.99</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="14">
-        <f>SUM(C2:C11)</f>
-        <v>67.19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="12">
-        <f>SUM(C7,C4,C8,C11)</f>
-        <v>22.44</v>
-      </c>
-      <c r="C14" s="14">
-        <f>SUM(C11,C7,C8,C4)</f>
-        <v>22.439999999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13">
+      <c r="B15" s="11"/>
+      <c r="C15" s="9">
         <v>80</v>
       </c>
     </row>
